--- a/public/importacion/Plantilla Terceros.xlsx
+++ b/public/importacion/Plantilla Terceros.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="765" yWindow="315" windowWidth="20730" windowHeight="9270"/>
   </bookViews>
   <sheets>
-    <sheet name="tercero (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos Generales" sheetId="1" r:id="rId1"/>
+    <sheet name="listas" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>TipoIdentificacion_idTipoIdentificacion</t>
   </si>
@@ -82,110 +83,95 @@
     <t>Cargo_idCargo</t>
   </si>
   <si>
-    <t>Viviana</t>
-  </si>
-  <si>
-    <t>Elejalde</t>
-  </si>
-  <si>
-    <t>Viviana  Elejalde PÃ©rez</t>
-  </si>
-  <si>
-    <t>*01*</t>
-  </si>
-  <si>
-    <t>Cll 33C 88A 169</t>
+    <t>Tipo Identificacion</t>
+  </si>
+  <si>
+    <t>Documento No.</t>
+  </si>
+  <si>
+    <t>Primer Nombre</t>
+  </si>
+  <si>
+    <t>Segundo Nombre</t>
+  </si>
+  <si>
+    <t>Primer Apellido</t>
+  </si>
+  <si>
+    <t>Segundo Apellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre Completo </t>
+  </si>
+  <si>
+    <t>Fecha de Creación</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Móvil 1</t>
+  </si>
+  <si>
+    <t>Móvil 2</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Correo Electrónico</t>
+  </si>
+  <si>
+    <t>Página Web</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>direccionoperativa@asisge.com</t>
-  </si>
-  <si>
-    <t>www.asisge.com</t>
-  </si>
-  <si>
-    <t>Tipo Identificacion</t>
-  </si>
-  <si>
-    <t>Documento No.</t>
-  </si>
-  <si>
-    <t>Primer Nombre</t>
-  </si>
-  <si>
-    <t>Segundo Nombre</t>
-  </si>
-  <si>
-    <t>Primer Apellido</t>
-  </si>
-  <si>
-    <t>Segundo Apellido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Completo </t>
-  </si>
-  <si>
-    <t>Fecha de Creación</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>terceros/98662720.png</t>
-  </si>
-  <si>
-    <t>Foto</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Móvil 1</t>
-  </si>
-  <si>
-    <t>Móvil 2</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Fecha Nacimiento</t>
-  </si>
-  <si>
-    <t>Correo Electrónico</t>
-  </si>
-  <si>
-    <t>Página Web</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Hola</t>
+    <t>Sisoft - Datos Generales de Proveedores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +314,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +502,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -625,6 +624,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -670,12 +684,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -721,7 +742,74 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -735,30 +823,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A3:V5" totalsRowShown="0">
   <autoFilter ref="A3:V5"/>
   <tableColumns count="22">
-    <tableColumn id="2" name="Tipo Identificacion"/>
-    <tableColumn id="3" name="Documento No."/>
-    <tableColumn id="4" name="Primer Nombre"/>
-    <tableColumn id="5" name="Segundo Nombre"/>
-    <tableColumn id="6" name="Primer Apellido"/>
-    <tableColumn id="7" name="Segundo Apellido"/>
-    <tableColumn id="8" name="Nombre Completo "/>
-    <tableColumn id="9" name="Fecha de Creación"/>
-    <tableColumn id="10" name="Estado"/>
-    <tableColumn id="11" name="Foto"/>
-    <tableColumn id="12" name="Tipo"/>
-    <tableColumn id="13" name="Dirección"/>
-    <tableColumn id="14" name="Ciudad"/>
-    <tableColumn id="15" name="Teléfono"/>
-    <tableColumn id="16" name="Fax"/>
-    <tableColumn id="17" name="Móvil 1"/>
-    <tableColumn id="18" name="Móvil 2"/>
-    <tableColumn id="19" name="Sexo"/>
-    <tableColumn id="20" name="Fecha Nacimiento"/>
-    <tableColumn id="21" name="Correo Electrónico"/>
-    <tableColumn id="22" name="Página Web"/>
-    <tableColumn id="23" name="Cargo"/>
+    <tableColumn id="2" name="Tipo Identificacion" dataDxfId="21"/>
+    <tableColumn id="3" name="Documento No." dataDxfId="20"/>
+    <tableColumn id="4" name="Primer Nombre" dataDxfId="19"/>
+    <tableColumn id="5" name="Segundo Nombre" dataDxfId="18"/>
+    <tableColumn id="6" name="Primer Apellido" dataDxfId="17"/>
+    <tableColumn id="7" name="Segundo Apellido" dataDxfId="16"/>
+    <tableColumn id="8" name="Nombre Completo " dataDxfId="15"/>
+    <tableColumn id="9" name="Fecha de Creación" dataDxfId="14"/>
+    <tableColumn id="10" name="Estado" dataDxfId="13"/>
+    <tableColumn id="11" name="Foto" dataDxfId="12"/>
+    <tableColumn id="12" name="Tipo" dataDxfId="11"/>
+    <tableColumn id="13" name="Dirección" dataDxfId="10"/>
+    <tableColumn id="14" name="Ciudad" dataDxfId="9"/>
+    <tableColumn id="15" name="Teléfono" dataDxfId="8"/>
+    <tableColumn id="16" name="Fax" dataDxfId="7"/>
+    <tableColumn id="17" name="Móvil 1" dataDxfId="6"/>
+    <tableColumn id="18" name="Móvil 2" dataDxfId="5"/>
+    <tableColumn id="19" name="Sexo" dataDxfId="4"/>
+    <tableColumn id="20" name="Fecha Nacimiento" dataDxfId="3"/>
+    <tableColumn id="21" name="Correo Electrónico" dataDxfId="2"/>
+    <tableColumn id="22" name="Página Web" dataDxfId="1"/>
+    <tableColumn id="23" name="Cargo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="Datos del Tercero" altTextSummary="Permite ingresar la información de terceros de tipo proveedor para cargar el sistema de información SISOFT"/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -1049,222 +1142,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:V5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="O3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="P3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
+      <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" t="s">
+      <c r="U3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
+      <c r="V3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>3536413</v>
-      </c>
-      <c r="P5">
-        <v>3217952095</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="1">
-        <v>31250</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="M5" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sort="0" autoFilter="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>listas!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>R5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/importacion/Plantilla Terceros.xlsx
+++ b/public/importacion/Plantilla Terceros.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>TipoIdentificacion_idTipoIdentificacion</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>Sisoft - Datos Generales de Proveedores</t>
+  </si>
+  <si>
+    <t>PROV</t>
+  </si>
+  <si>
+    <t>CTE</t>
+  </si>
+  <si>
+    <t>tipoCliente</t>
+  </si>
+  <si>
+    <t>tipoProveedor</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Sector Empresarial</t>
+  </si>
+  <si>
+    <t>Zona_idZona</t>
+  </si>
+  <si>
+    <t>SectorEmpresa_idSectorEmpresa</t>
   </si>
 </sst>
 </file>
@@ -684,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -692,11 +716,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -742,7 +767,19 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -820,31 +857,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A3:V5" totalsRowShown="0">
-  <autoFilter ref="A3:V5"/>
-  <tableColumns count="22">
-    <tableColumn id="2" name="Tipo Identificacion" dataDxfId="21"/>
-    <tableColumn id="3" name="Documento No." dataDxfId="20"/>
-    <tableColumn id="4" name="Primer Nombre" dataDxfId="19"/>
-    <tableColumn id="5" name="Segundo Nombre" dataDxfId="18"/>
-    <tableColumn id="6" name="Primer Apellido" dataDxfId="17"/>
-    <tableColumn id="7" name="Segundo Apellido" dataDxfId="16"/>
-    <tableColumn id="8" name="Nombre Completo " dataDxfId="15"/>
-    <tableColumn id="9" name="Fecha de Creación" dataDxfId="14"/>
-    <tableColumn id="10" name="Estado" dataDxfId="13"/>
-    <tableColumn id="11" name="Foto" dataDxfId="12"/>
-    <tableColumn id="12" name="Tipo" dataDxfId="11"/>
-    <tableColumn id="13" name="Dirección" dataDxfId="10"/>
-    <tableColumn id="14" name="Ciudad" dataDxfId="9"/>
-    <tableColumn id="15" name="Teléfono" dataDxfId="8"/>
-    <tableColumn id="16" name="Fax" dataDxfId="7"/>
-    <tableColumn id="17" name="Móvil 1" dataDxfId="6"/>
-    <tableColumn id="18" name="Móvil 2" dataDxfId="5"/>
-    <tableColumn id="19" name="Sexo" dataDxfId="4"/>
-    <tableColumn id="20" name="Fecha Nacimiento" dataDxfId="3"/>
-    <tableColumn id="21" name="Correo Electrónico" dataDxfId="2"/>
-    <tableColumn id="22" name="Página Web" dataDxfId="1"/>
-    <tableColumn id="23" name="Cargo" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A3:Z5" totalsRowShown="0">
+  <autoFilter ref="A3:Z5"/>
+  <tableColumns count="26">
+    <tableColumn id="2" name="Tipo Identificacion" dataDxfId="25"/>
+    <tableColumn id="3" name="Documento No." dataDxfId="24"/>
+    <tableColumn id="4" name="Primer Nombre" dataDxfId="23"/>
+    <tableColumn id="5" name="Segundo Nombre" dataDxfId="22"/>
+    <tableColumn id="6" name="Primer Apellido" dataDxfId="21"/>
+    <tableColumn id="7" name="Segundo Apellido" dataDxfId="20"/>
+    <tableColumn id="8" name="Nombre Completo " dataDxfId="19"/>
+    <tableColumn id="24" name="CTE" dataDxfId="2"/>
+    <tableColumn id="1" name="PROV" dataDxfId="3"/>
+    <tableColumn id="9" name="Fecha de Creación" dataDxfId="18"/>
+    <tableColumn id="10" name="Estado" dataDxfId="17"/>
+    <tableColumn id="11" name="Foto" dataDxfId="16"/>
+    <tableColumn id="12" name="Tipo" dataDxfId="15"/>
+    <tableColumn id="13" name="Dirección" dataDxfId="14"/>
+    <tableColumn id="14" name="Ciudad" dataDxfId="13"/>
+    <tableColumn id="15" name="Teléfono" dataDxfId="12"/>
+    <tableColumn id="16" name="Fax" dataDxfId="11"/>
+    <tableColumn id="17" name="Móvil 1" dataDxfId="10"/>
+    <tableColumn id="18" name="Móvil 2" dataDxfId="9"/>
+    <tableColumn id="19" name="Sexo" dataDxfId="8"/>
+    <tableColumn id="20" name="Fecha Nacimiento" dataDxfId="7"/>
+    <tableColumn id="21" name="Correo Electrónico" dataDxfId="6"/>
+    <tableColumn id="22" name="Página Web" dataDxfId="5"/>
+    <tableColumn id="23" name="Cargo" dataDxfId="4"/>
+    <tableColumn id="25" name="Zona" dataDxfId="1"/>
+    <tableColumn id="26" name="Sector Empresarial" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1142,65 +1183,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.25" customWidth="1"/>
+    <col min="26" max="26" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1221,53 +1268,65 @@
       <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="Y3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1289,61 +1348,75 @@
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="Y4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
@@ -1357,13 +1430,13 @@
           <x14:formula1>
             <xm:f>listas!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>R5</xm:sqref>
+          <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>listas!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I5</xm:sqref>
+          <xm:sqref>K5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1381,8 +1454,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/importacion/Plantilla Terceros.xlsx
+++ b/public/importacion/Plantilla Terceros.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Datos Generales" sheetId="1" r:id="rId1"/>
-    <sheet name="listas" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="listas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>TipoIdentificacion_idTipoIdentificacion</t>
   </si>
@@ -23,18 +23,6 @@
     <t>documentoTercero</t>
   </si>
   <si>
-    <t>nombre1Tercero</t>
-  </si>
-  <si>
-    <t>nombre2Tercero</t>
-  </si>
-  <si>
-    <t>apellido1Tercero</t>
-  </si>
-  <si>
-    <t>apellido2Tercero</t>
-  </si>
-  <si>
     <t>nombreCompletoTercero</t>
   </si>
   <si>
@@ -68,42 +56,18 @@
     <t>movil2Tercero</t>
   </si>
   <si>
-    <t>sexoTercero</t>
-  </si>
-  <si>
-    <t>fechaNacimientoTercero</t>
-  </si>
-  <si>
     <t>correoElectronicoTercero</t>
   </si>
   <si>
     <t>paginaWebTercero</t>
   </si>
   <si>
-    <t>Cargo_idCargo</t>
-  </si>
-  <si>
     <t>Tipo Identificacion</t>
   </si>
   <si>
     <t>Documento No.</t>
   </si>
   <si>
-    <t>Primer Nombre</t>
-  </si>
-  <si>
-    <t>Segundo Nombre</t>
-  </si>
-  <si>
-    <t>Primer Apellido</t>
-  </si>
-  <si>
-    <t>Segundo Apellido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Completo </t>
-  </si>
-  <si>
     <t>Fecha de Creación</t>
   </si>
   <si>
@@ -134,18 +98,12 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>Fecha Nacimiento</t>
-  </si>
-  <si>
     <t>Correo Electrónico</t>
   </si>
   <si>
     <t>Página Web</t>
   </si>
   <si>
-    <t>Cargo</t>
-  </si>
-  <si>
     <t>Ciudad</t>
   </si>
   <si>
@@ -164,18 +122,6 @@
     <t>Sisoft - Datos Generales de Proveedores</t>
   </si>
   <si>
-    <t>PROV</t>
-  </si>
-  <si>
-    <t>CTE</t>
-  </si>
-  <si>
-    <t>tipoCliente</t>
-  </si>
-  <si>
-    <t>tipoProveedor</t>
-  </si>
-  <si>
     <t>Zona</t>
   </si>
   <si>
@@ -186,6 +132,48 @@
   </si>
   <si>
     <t>SectorEmpresa_idSectorEmpresa</t>
+  </si>
+  <si>
+    <t>Convenciones de Títulos</t>
+  </si>
+  <si>
+    <t>Código correspondiente con maestro del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dato Obligatorio </t>
+  </si>
+  <si>
+    <t>Valor Opcional</t>
+  </si>
+  <si>
+    <t>Lista de Selección</t>
+  </si>
+  <si>
+    <t>Nombre Completo  / Razón Social</t>
+  </si>
+  <si>
+    <t>Es Contratista?</t>
+  </si>
+  <si>
+    <t>contratistaTercero</t>
+  </si>
+  <si>
+    <t>Tipo Tercero</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>Contratista</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -195,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,15 +320,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -708,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -716,12 +749,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,19 +815,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -824,18 +860,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -857,37 +881,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A3:Z5" totalsRowShown="0">
-  <autoFilter ref="A3:Z5"/>
-  <tableColumns count="26">
-    <tableColumn id="2" name="Tipo Identificacion" dataDxfId="25"/>
-    <tableColumn id="3" name="Documento No." dataDxfId="24"/>
-    <tableColumn id="4" name="Primer Nombre" dataDxfId="23"/>
-    <tableColumn id="5" name="Segundo Nombre" dataDxfId="22"/>
-    <tableColumn id="6" name="Primer Apellido" dataDxfId="21"/>
-    <tableColumn id="7" name="Segundo Apellido" dataDxfId="20"/>
-    <tableColumn id="8" name="Nombre Completo " dataDxfId="19"/>
-    <tableColumn id="24" name="CTE" dataDxfId="2"/>
-    <tableColumn id="1" name="PROV" dataDxfId="3"/>
-    <tableColumn id="9" name="Fecha de Creación" dataDxfId="18"/>
-    <tableColumn id="10" name="Estado" dataDxfId="17"/>
-    <tableColumn id="11" name="Foto" dataDxfId="16"/>
-    <tableColumn id="12" name="Tipo" dataDxfId="15"/>
-    <tableColumn id="13" name="Dirección" dataDxfId="14"/>
-    <tableColumn id="14" name="Ciudad" dataDxfId="13"/>
-    <tableColumn id="15" name="Teléfono" dataDxfId="12"/>
-    <tableColumn id="16" name="Fax" dataDxfId="11"/>
-    <tableColumn id="17" name="Móvil 1" dataDxfId="10"/>
-    <tableColumn id="18" name="Móvil 2" dataDxfId="9"/>
-    <tableColumn id="19" name="Sexo" dataDxfId="8"/>
-    <tableColumn id="20" name="Fecha Nacimiento" dataDxfId="7"/>
-    <tableColumn id="21" name="Correo Electrónico" dataDxfId="6"/>
-    <tableColumn id="22" name="Página Web" dataDxfId="5"/>
-    <tableColumn id="23" name="Cargo" dataDxfId="4"/>
-    <tableColumn id="25" name="Zona" dataDxfId="1"/>
-    <tableColumn id="26" name="Sector Empresarial" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A9:R11" totalsRowShown="0">
+  <autoFilter ref="A9:R11"/>
+  <tableColumns count="18">
+    <tableColumn id="2" name="Tipo Identificacion" dataDxfId="17"/>
+    <tableColumn id="3" name="Documento No." dataDxfId="16"/>
+    <tableColumn id="8" name="Nombre Completo  / Razón Social" dataDxfId="15"/>
+    <tableColumn id="12" name="Tipo" dataDxfId="1"/>
+    <tableColumn id="1" name="Es Contratista?" dataDxfId="0"/>
+    <tableColumn id="9" name="Fecha de Creación" dataDxfId="14"/>
+    <tableColumn id="10" name="Estado" dataDxfId="13"/>
+    <tableColumn id="11" name="Foto" dataDxfId="12"/>
+    <tableColumn id="13" name="Dirección" dataDxfId="11"/>
+    <tableColumn id="14" name="Ciudad" dataDxfId="10"/>
+    <tableColumn id="15" name="Teléfono" dataDxfId="9"/>
+    <tableColumn id="16" name="Fax" dataDxfId="8"/>
+    <tableColumn id="17" name="Móvil 1" dataDxfId="7"/>
+    <tableColumn id="18" name="Móvil 2" dataDxfId="6"/>
+    <tableColumn id="21" name="Correo Electrónico" dataDxfId="5"/>
+    <tableColumn id="22" name="Página Web" dataDxfId="4"/>
+    <tableColumn id="25" name="Zona" dataDxfId="3"/>
+    <tableColumn id="26" name="Sector Empresarial" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
       <x14:table altText="Datos del Tercero" altTextSummary="Permite ingresar la información de terceros de tipo proveedor para cargar el sistema de información SISOFT"/>
@@ -1183,240 +1199,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" customWidth="1"/>
-    <col min="26" max="26" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="F3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="F4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="F5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="3" t="s">
+    </row>
+    <row r="10" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="O5" s="4"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="R11" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
@@ -1425,18 +1454,24 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>listas!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T5</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>listas!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K5</xm:sqref>
+          <xm:sqref>G11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>listas!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>listas!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1446,40 +1481,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>38</v>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
